--- a/example/e2fsprogs-1.39/input/e2fsprogs-1.39-INV.xlsx
+++ b/example/e2fsprogs-1.39/input/e2fsprogs-1.39-INV.xlsx
@@ -361,9 +361,6 @@
     <t>Copyright (c) 1997-2004 Theodore Ts'o</t>
   </si>
   <si>
-    <t>dje_license</t>
-  </si>
-  <si>
     <t>notice_file</t>
   </si>
   <si>
@@ -518,6 +515,9 @@
   </si>
   <si>
     <t>UlrichWindl.LICENSE</t>
+  </si>
+  <si>
+    <t>dje_license_key</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>69</v>
@@ -1218,19 +1218,19 @@
         <v>105</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>108</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>72</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>107</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>72</v>
@@ -1361,7 +1361,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4" t="s">
@@ -1371,7 +1371,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>72</v>
@@ -1403,7 +1403,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
@@ -1413,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>72</v>
@@ -1445,7 +1445,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1481,14 +1481,14 @@
         <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10"/>
@@ -1498,7 +1498,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -1519,17 +1519,17 @@
         <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>72</v>
@@ -1557,17 +1557,17 @@
         <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>72</v>
@@ -1595,7 +1595,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
@@ -1616,7 +1616,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1635,7 +1635,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
@@ -1656,7 +1656,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1675,7 +1675,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="4" t="s">
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>72</v>
@@ -1717,17 +1717,17 @@
         <v>85</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>72</v>
@@ -1739,7 +1739,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1759,17 +1759,17 @@
         <v>86</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>72</v>
@@ -1781,7 +1781,7 @@
         <v>72</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1801,7 +1801,7 @@
         <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>72</v>
@@ -1843,7 +1843,7 @@
         <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>72</v>
@@ -1885,11 +1885,11 @@
         <v>89</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -1929,7 +1929,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
@@ -1965,17 +1965,17 @@
         <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>72</v>
@@ -2005,17 +2005,17 @@
         <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>72</v>
@@ -2045,17 +2045,17 @@
         <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>72</v>
@@ -2085,17 +2085,17 @@
         <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>72</v>
@@ -2121,17 +2121,17 @@
         <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>72</v>
@@ -2159,7 +2159,7 @@
         <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>72</v>
@@ -2201,7 +2201,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
@@ -2211,7 +2211,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>72</v>
@@ -2239,7 +2239,7 @@
         <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="4" t="s">
@@ -2249,7 +2249,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>72</v>
@@ -2277,17 +2277,17 @@
         <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>72</v>
@@ -2313,17 +2313,17 @@
         <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>72</v>
@@ -2349,17 +2349,17 @@
         <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>72</v>

--- a/example/e2fsprogs-1.39/input/e2fsprogs-1.39-INV.xlsx
+++ b/example/e2fsprogs-1.39/input/e2fsprogs-1.39-INV.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYL\git\about-code-tool\example\e2fsprogs-1.39\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28260" windowHeight="16480" tabRatio="324"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="28260" windowHeight="16485" tabRatio="324"/>
   </bookViews>
   <sheets>
     <sheet name="e2fsprogs-1.39" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -361,9 +366,6 @@
     <t>Copyright (c) 1997-2004 Theodore Ts'o</t>
   </si>
   <si>
-    <t>dje_license</t>
-  </si>
-  <si>
     <t>notice_file</t>
   </si>
   <si>
@@ -484,9 +486,6 @@
     <t>KazKylheku.LICENSE</t>
   </si>
   <si>
-    <t>license_text_file</t>
-  </si>
-  <si>
     <t>lgpl-2.0</t>
   </si>
   <si>
@@ -518,12 +517,18 @@
   </si>
   <si>
     <t>UlrichWindl.LICENSE</t>
+  </si>
+  <si>
+    <t>dje_license_key</t>
+  </si>
+  <si>
+    <t>license_file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -783,6 +788,14 @@
       <rgbColor rgb="003C3C3C"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1092,7 +1105,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1136,7 +1149,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1161,32 +1174,32 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="71">
+    <row r="1" spans="1:16" ht="72.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>69</v>
@@ -1218,25 +1231,25 @@
         <v>105</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>108</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="55">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
@@ -1253,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>72</v>
@@ -1269,7 +1282,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>107</v>
@@ -1282,12 +1295,12 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
@@ -1297,24 +1310,24 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="44">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>72</v>
@@ -1356,12 +1369,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4" t="s">
@@ -1371,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>72</v>
@@ -1398,12 +1411,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="44">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
@@ -1413,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>72</v>
@@ -1440,12 +1453,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="44">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
@@ -1455,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1476,19 +1489,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="55">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10"/>
@@ -1498,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -1514,22 +1527,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>72</v>
@@ -1552,22 +1565,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>72</v>
@@ -1590,12 +1603,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
@@ -1616,7 +1629,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1630,12 +1643,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
@@ -1656,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1670,12 +1683,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="4" t="s">
@@ -1685,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>72</v>
@@ -1712,22 +1725,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="55">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>72</v>
@@ -1739,7 +1752,7 @@
         <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -1754,22 +1767,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>72</v>
@@ -1781,7 +1794,7 @@
         <v>72</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -1796,12 +1809,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
@@ -1811,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>72</v>
@@ -1838,12 +1851,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
@@ -1853,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>72</v>
@@ -1880,22 +1893,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="55">
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>72</v>
@@ -1924,12 +1937,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="55">
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
@@ -1939,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1960,22 +1973,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>72</v>
@@ -2000,22 +2013,22 @@
       </c>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>72</v>
@@ -2040,22 +2053,22 @@
       </c>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>72</v>
@@ -2080,22 +2093,22 @@
       </c>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>72</v>
@@ -2116,22 +2129,22 @@
       </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="33">
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>72</v>
@@ -2154,12 +2167,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
@@ -2169,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>72</v>
@@ -2196,12 +2209,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
@@ -2211,7 +2224,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>72</v>
@@ -2234,12 +2247,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="4" t="s">
@@ -2249,7 +2262,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>72</v>
@@ -2272,22 +2285,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>72</v>
@@ -2308,22 +2321,22 @@
       </c>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1">
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>72</v>
@@ -2344,22 +2357,22 @@
       </c>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" ht="22">
+    <row r="30" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>72</v>
